--- a/data/Data tables for Australia's mothers and babies 2018—data visualisations/Table 4 notes.xlsx
+++ b/data/Data tables for Australia's mothers and babies 2018—data visualisations/Table 4 notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d08107d86ebdc691/Desktop/Project/Maternal Health and Adoption/Data tables for Australia's mothers and babies 2018—data visualisations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d08107d86ebdc691/Documents/GitHub/finalproject/data/Data tables for Australia's mothers and babies 2018—data visualisations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D6E7F6-AB33-4EBC-9325-158F97F7FB51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E7D501-3D39-4F74-8E8D-5DC525A3413F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A3378B4-0204-4655-AA4C-3B0B51EF3A77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC3062CE-3821-4189-A1C2-6B4B743F23CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4 notes" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BB01CA80-5898-49DB-B288-0F0F177EFC27}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A6A0608D-303D-49A0-8454-DCC9FA0A6CC5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,6 +508,7 @@
       <sheetName val="Table 6.4"/>
       <sheetName val="Table 1 notes"/>
       <sheetName val="Table 2 notes"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="Table 3 notes"/>
       <sheetName val="Table 4 notes"/>
       <sheetName val="Table 5 notes"/>
@@ -550,6 +551,7 @@
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7338,7 +7340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB9140-AFD0-4B03-BEFE-9D2970FA26A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEB9A56-BDE1-4DC3-BE53-6CA13CEB1E25}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:E115"/>
   <sheetViews>
